--- a/TransferData2/bin/Debug/default.xlsx
+++ b/TransferData2/bin/Debug/default.xlsx
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4001</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>234</v>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4500</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6000</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5500</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6500</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>200</v>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12000</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3300</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>200</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4450</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12000</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11000</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>200</v>
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4500</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>200</v>
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>23000</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>2002</v>
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11200</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -587,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7600</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7800</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6900</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3400</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -631,7 +631,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5800</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>200</v>
@@ -642,7 +642,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8400</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>200</v>
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9100</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>200</v>
@@ -664,7 +664,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9500</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>200</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>12500</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>200</v>
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>14000</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>200</v>
@@ -697,7 +697,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>15000</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>200</v>
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>16500</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>200</v>
@@ -719,7 +719,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>18000</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>200</v>
@@ -730,7 +730,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>13700</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -741,7 +741,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4001</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -752,7 +752,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4500</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6000</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>200</v>
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>200</v>
@@ -796,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5500</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -807,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6500</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>200</v>
@@ -818,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>12000</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>200</v>
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3300</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>200</v>
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4450</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>200</v>
@@ -851,7 +851,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>12000</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>200</v>
@@ -862,7 +862,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>11000</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>200</v>
@@ -873,7 +873,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4500</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>200</v>
@@ -884,7 +884,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>200</v>
@@ -895,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>23000</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>2002</v>
@@ -906,7 +906,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>11200</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>200</v>
@@ -917,7 +917,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7600</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>200</v>
@@ -928,7 +928,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7800</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>200</v>
@@ -939,7 +939,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6900</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>200</v>
@@ -950,7 +950,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3400</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>200</v>
@@ -961,7 +961,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5800</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>200</v>
@@ -972,7 +972,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>8400</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>200</v>
@@ -983,7 +983,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>9100</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>200</v>
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>9500</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>200</v>
@@ -1005,7 +1005,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>12500</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>200</v>
@@ -1016,7 +1016,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>14000</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>200</v>
@@ -1027,7 +1027,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>15000</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>200</v>
@@ -1038,7 +1038,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>16500</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>200</v>
@@ -1049,7 +1049,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>18000</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>200</v>
@@ -1060,7 +1060,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>13700</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>200</v>
